--- a/excel_with_subclasses/with_count/road_with_count.xlsx
+++ b/excel_with_subclasses/with_count/road_with_count.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="road" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="highway" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="controlled_access_highway" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="interchange" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -472,7 +473,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1489</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="5">
@@ -512,7 +513,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="7">
@@ -852,7 +853,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24">
@@ -1368,7 +1369,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica</t>
+          <t>Q55119611_autonomous road</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1748,7 +1749,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica</t>
+          <t>Q55119611_autonomous road</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1848,7 +1849,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica</t>
+          <t>Q55119611_autonomous road</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -2092,7 +2093,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86">
@@ -2198,17 +2199,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Q184949</t>
+          <t>Q23011975</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>гипподром</t>
+          <t>дорога с покрытием вне населённых пунктов</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Q11822917_ипподром</t>
+          <t>Q1478459_municipal road</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -2218,37 +2219,37 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Q1716124</t>
+          <t>Q184949</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>дорога национального значения</t>
+          <t>гипподром</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Q34442_дорога</t>
+          <t>Q11822917_ипподром</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Q23011975</t>
+          <t>Q1716124</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>дорога с покрытием вне населённых пунктов</t>
+          <t>дорога национального значения</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Q1478459_municipal road</t>
+          <t>Q34442_дорога</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -2743,7 +2744,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>carretera autonómica</t>
+          <t>autonomous road</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2958,17 +2959,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Q2251535</t>
+          <t>Q7371728</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>driveway</t>
+          <t>roving bridge</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Q703941_private road</t>
+          <t>Q1068842_пешеходный мост</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -2978,17 +2979,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Q93899879</t>
+          <t>Q2251535</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>regional road</t>
+          <t>driveway</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Q34442_дорога</t>
+          <t>Q703941_private road</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -2998,17 +2999,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Q7371728</t>
+          <t>Q93899879</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>roving bridge</t>
+          <t>regional road</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Q1068842_пешеходный мост</t>
+          <t>Q34442_дорога</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -3228,7 +3229,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica,Q55119867_carretera provincial</t>
+          <t>Q55119611_autonomous road,Q55119867_carretera provincial</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -3828,7 +3829,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica</t>
+          <t>Q55119611_autonomous road</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -4048,7 +4049,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica</t>
+          <t>Q55119611_autonomous road</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -4148,7 +4149,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica</t>
+          <t>Q55119611_autonomous road</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -4168,7 +4169,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica</t>
+          <t>Q55119611_autonomous road</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -4208,7 +4209,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica</t>
+          <t>Q55119611_autonomous road</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -4248,7 +4249,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica</t>
+          <t>Q55119611_autonomous road</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -4328,7 +4329,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica</t>
+          <t>Q55119611_autonomous road</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -4348,7 +4349,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica</t>
+          <t>Q55119611_autonomous road</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -4868,7 +4869,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Q34442_дорога,Q55119611_carretera autonómica,Q55119867_carretera provincial</t>
+          <t>Q34442_дорога,Q55119611_autonomous road,Q55119867_carretera provincial</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -6463,12 +6464,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Red de Carreteras de la Región de Murcia</t>
+          <t>road network of the region of Murcia</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica</t>
+          <t>Q55119611_autonomous road</t>
         </is>
       </c>
       <c r="D304" t="n">
@@ -7458,17 +7459,17 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Q27469967</t>
+          <t>Q27537281</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Red de Carreteras del Estado</t>
+          <t>Red Local</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Q34442_дорога</t>
+          <t>Q55130337_carretera autonómica de tercer nivel</t>
         </is>
       </c>
       <c r="D354" t="n">
@@ -7478,17 +7479,17 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Q27537281</t>
+          <t>Q27642501</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Red Local</t>
+          <t>Red de carreteras de la Diputación Provincial de Valladolid</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Q55130337_carretera autonómica de tercer nivel</t>
+          <t>Q55119867_carretera provincial</t>
         </is>
       </c>
       <c r="D355" t="n">
@@ -7498,17 +7499,17 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Q27642501</t>
+          <t>Q27834361</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Red de carreteras de la Diputación Provincial de Valladolid</t>
+          <t>road network of the Principality of Asturias</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Q55119867_carretera provincial</t>
+          <t>Q55119611_autonomous road</t>
         </is>
       </c>
       <c r="D356" t="n">
@@ -9600,4 +9601,225 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>subclass</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>subclasslabel</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>class</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>count_P31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Q11313284</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Smart interchange</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Q2376564_транспортная развязка</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Q628131</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Diamond interchange</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Q2376564_транспортная развязка</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Q1861288</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>incomplete interchange</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Q2376564_транспортная развязка</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Q11075207</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cloverleaf interchange</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Q2376564_транспортная развязка</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Q5253909</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>stack interchange</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Q2376564_транспортная развязка</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Q11347628</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Q2376564_транспортная развязка</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Q17125161</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free-flow interchange</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Q2376564_транспортная развязка</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Q2521145</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>windmill interchange</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Q2376564_транспортная развязка</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Q43899262</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>trumpet interchange</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Q2376564_транспортная развязка</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>